--- a/Задание_НИТПУ/Лист Microsoft Excel.xlsx
+++ b/Задание_НИТПУ/Лист Microsoft Excel.xlsx
@@ -350,132 +350,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A24"/>
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1.0573705615042801E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2154.0270290092899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6.5370444952353203E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>20921.564691617001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.82829670553881996</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>966347.03293031198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.4938208668573497E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>120135.34242402299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.5802552437546702E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>114812.015275905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.2398729276617596E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>39055.823693466598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.1802987199824699E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>49889.797266860398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4.42543284086859E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>23220.0109277013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.8941668828722802E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>20432.4866800688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.9549152563369003E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>31052.491678009701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7.0272232860967097E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9206.2920268972102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.1342934682172601E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8030.1874843550804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.81851099714553E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>156750.34899853001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.8344179643451501E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5543.7287880410404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8.6577519518660998E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>120456.38696389399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.42773423276806E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>58328.284330939299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.8230578061874303E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1928.8771893836899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6.6325414999446496E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>219.38297836314101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.8536115843520301E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>73.195245091583999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5.1784848871389499E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3194.2233824678001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.4025424889270701E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3684.0878077861298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.84840116077909E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2310.9307699332599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.5288990877440696E-6</v>
+      </c>
+      <c r="B24">
+        <v>87.635441867784394</v>
       </c>
     </row>
   </sheetData>

--- a/Задание_НИТПУ/Лист Microsoft Excel.xlsx
+++ b/Задание_НИТПУ/Лист Microsoft Excel.xlsx
@@ -350,204 +350,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+      <selection activeCell="D1" sqref="D1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1.0573705615042801E-3</v>
       </c>
       <c r="B1">
         <v>2154.0270290092899</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>1.1386591849394899E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6.5370444952353203E-3</v>
       </c>
       <c r="B2">
         <v>20921.564691617001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>6.6824269605361203E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.82829670553881996</v>
       </c>
       <c r="B3">
         <v>966347.03293031198</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.87607403753719004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.4938208668573497E-2</v>
       </c>
       <c r="B4">
         <v>120135.34242402299</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5.4823048923164003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.5802552437546702E-2</v>
       </c>
       <c r="B5">
         <v>114812.015275905</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3.2696512123184002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.2398729276617596E-3</v>
       </c>
       <c r="B6">
         <v>39055.823693466598</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>7.6268314305623797E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.1802987199824699E-2</v>
       </c>
       <c r="B7">
         <v>49889.797266860398</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>9.1961601337154798E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4.42543284086859E-3</v>
       </c>
       <c r="B8">
         <v>23220.0109277013</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>2.9198875877186098E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.8941668828722802E-3</v>
       </c>
       <c r="B9">
         <v>20432.4866800688</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>2.3846914681668798E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.9549152563369003E-3</v>
       </c>
       <c r="B10">
         <v>31052.491678009701</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>2.1798039109574801E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7.0272232860967097E-3</v>
       </c>
       <c r="B11">
         <v>9206.2920268972102</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>9.6637450694388605E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.1342934682172601E-3</v>
       </c>
       <c r="B13">
         <v>8030.1874843550804</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>3.5798168390153599E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.81851099714553E-2</v>
       </c>
       <c r="B14">
         <v>156750.34899853001</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>2.56252713820149E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.8344179643451501E-4</v>
       </c>
       <c r="B15">
         <v>5543.7287880410404</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>4.0439567751643102E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8.6577519518660998E-3</v>
       </c>
       <c r="B16">
         <v>120456.38696389399</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>6.7958453959585203E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.42773423276806E-3</v>
       </c>
       <c r="B17">
         <v>58328.284330939299</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>3.4422908893193299E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.8230578061874303E-5</v>
       </c>
       <c r="B18">
         <v>1928.8771893836899</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>1.97546034117334E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6.6325414999446496E-6</v>
       </c>
       <c r="B19">
         <v>219.38297836314101</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>5.3547797229203403E-13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.8536115843520301E-6</v>
       </c>
       <c r="B20">
         <v>73.195245091583999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>6.1509664569717898E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5.1784848871389499E-4</v>
       </c>
       <c r="B21">
         <v>3194.2233824678001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>2.33005700003955E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.4025424889270701E-4</v>
       </c>
       <c r="B22">
         <v>3684.0878077861298</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>8.1263608606457505E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.84840116077909E-4</v>
       </c>
       <c r="B23">
         <v>2310.9307699332599</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>4.74902885100745E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.5288990877440696E-6</v>
       </c>
       <c r="B24">
         <v>87.635441867784394</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.6310305251421598E-10</v>
       </c>
     </row>
   </sheetData>

--- a/Задание_НИТПУ/Лист Microsoft Excel.xlsx
+++ b/Задание_НИТПУ/Лист Microsoft Excel.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -350,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D24"/>
+      <selection activeCell="P1" sqref="P1:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1.0573705615042801E-3</v>
       </c>
@@ -368,8 +368,36 @@
       <c r="D1" s="1">
         <v>1.1386591849394899E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
+        <v>2.3350060561154001E-4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1.3878978871544001E-6</v>
+      </c>
+      <c r="I1">
+        <v>5975.8040616048802</v>
+      </c>
+      <c r="J1">
+        <v>441.759514175172</v>
+      </c>
+      <c r="L1" s="1">
+        <f>F1*$I$1</f>
+        <v>1.39535386740064</v>
+      </c>
+      <c r="M1" s="1">
+        <f>G1*$J$1</f>
+        <v>6.1311709635407548E-4</v>
+      </c>
+      <c r="N1" s="1">
+        <f>L1+M1</f>
+        <v>1.3959669844969942</v>
+      </c>
+      <c r="P1" s="1">
+        <f>N1/$N$25</f>
+        <v>2.1752289136104356E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6.5370444952353203E-3</v>
       </c>
@@ -379,8 +407,30 @@
       <c r="D2" s="1">
         <v>6.6824269605361203E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>5.3954591432877801E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.58969533803996E-4</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L24" si="0">F2*$I$1</f>
+        <v>32.242206662682307</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M24" si="1">G2*$J$1</f>
+        <v>7.0226304021906855E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N24" si="2">L2+M2</f>
+        <v>32.312432966704215</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P24" si="3">N2/$N$25</f>
+        <v>5.0350000565092439E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.82829670553881996</v>
       </c>
@@ -390,8 +440,30 @@
       <c r="D3">
         <v>0.87607403753719004</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.35941763246445102</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.6038686822532194E-7</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>2147.8093478934766</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2426003632743317E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="2"/>
+        <v>2147.8097721535128</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33467682038388658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.4938208668573497E-2</v>
       </c>
@@ -401,8 +473,30 @@
       <c r="D4">
         <v>5.4823048923164003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>6.0277247322142902E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.2592920809123299E-10</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>360.20501937002342</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0903803712698484E-7</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
+        <v>360.20501977906144</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6128001776013382E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.5802552437546702E-2</v>
       </c>
@@ -412,8 +506,30 @@
       <c r="D5">
         <v>3.2696512123184002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>7.2912133561570197E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.4445711603093899E-12</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>435.70862387750867</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5216720823200846E-9</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>435.70862387903037</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7893152710383597E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.2398729276617596E-3</v>
       </c>
@@ -423,8 +539,30 @@
       <c r="D6" s="1">
         <v>7.6268314305623797E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2.7820335120506998E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.9239016581302199E-15</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>166.24887160833461</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4990186181641379E-13</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>166.24887160833546</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5905294064520121E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.1802987199824699E-2</v>
       </c>
@@ -434,8 +572,30 @@
       <c r="D7" s="1">
         <v>9.1961601337154798E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>4.1599416366087598E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.4616933157626E-15</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>248.5899612808588</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5292359573947264E-12</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>248.58996128086034</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8735878241867576E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4.42543284086859E-3</v>
       </c>
@@ -445,8 +605,30 @@
       <c r="D8" s="1">
         <v>2.9198875877186098E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>2.1457270728239899E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.9302350010380999E-18</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>128.2244455687715</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5269967630250361E-16</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>128.2244455687715</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9980237679715688E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.8941668828722802E-3</v>
       </c>
@@ -456,8 +638,30 @@
       <c r="D9" s="1">
         <v>2.3846914681668798E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>2.0930337971564301E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.67177687817174E-18</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>125.0755986612368</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3852334151043356E-16</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>125.0755986612368</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9489576875135819E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.9549152563369003E-3</v>
       </c>
@@ -467,8 +671,30 @@
       <c r="D10" s="1">
         <v>2.1798039109574801E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>3.6112291123653599E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.9148835078698E-21</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>215.79997597058704</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4591800813861203E-19</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>215.79997597058704</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.362646484485457E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7.0272232860967097E-3</v>
       </c>
@@ -478,8 +704,30 @@
       <c r="D11" s="1">
         <v>9.6637450694388605E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>8.8172781529004902E-4</v>
+      </c>
+      <c r="G11">
+        <v>0.99983868125206099</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2690326598402724</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>441.6882500834551</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>446.95728274329537</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9645945453523303E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -489,8 +737,30 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.1342934682172601E-3</v>
       </c>
@@ -500,8 +770,30 @@
       <c r="D13" s="1">
         <v>3.5798168390153599E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>9.8316676649941592E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.7011777622632396E-24</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>58.752119564821463</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4020685468340466E-21</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>58.752119564821463</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1548948243461992E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.81851099714553E-2</v>
       </c>
@@ -511,8 +803,30 @@
       <c r="D14" s="1">
         <v>2.56252713820149E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.19286889074619401</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.8519391163033601E-24</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1152.546700678334</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1811172430016972E-22</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>1152.546700678334</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17959256454085737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.8344179643451501E-4</v>
       </c>
@@ -522,8 +836,30 @@
       <c r="D15" s="1">
         <v>4.0439567751643102E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>4.6213741045895698E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.4542644020457196E-47</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>27.616426144401967</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.409473192430652E-44</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>27.616426144401967</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3032571190454016E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8.6577519518660998E-3</v>
       </c>
@@ -533,8 +869,30 @@
       <c r="D16" s="1">
         <v>6.7958453959585203E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.104605323861578</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.3865020542718502E-44</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>625.10091919751176</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0542599880731825E-41</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>625.10091919751176</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>9.7404710029932381E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.42773423276806E-3</v>
       </c>
@@ -544,8 +902,30 @@
       <c r="D17" s="1">
         <v>3.4422908893193299E-8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>2.9543604678154398E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.2457968090160199E-88</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>176.54679283016398</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4338616214622404E-85</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>176.54679283016398</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7509940609930748E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7.8230578061874303E-5</v>
       </c>
@@ -555,8 +935,30 @@
       <c r="D18" s="1">
         <v>1.97546034117334E-9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>9.5199462422339699E-4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.42811300745134E-82</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6889333420601877</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0726420225341198E-79</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6889333420601877</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8646310626828528E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6.6325414999446496E-6</v>
       </c>
@@ -566,8 +968,30 @@
       <c r="D19" s="1">
         <v>5.3547797229203403E-13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>8.0713819590451805E-5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8.0713819590451794E-105</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48232997093626545</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5656097729500463E-102</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48232997093626545</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5157801748405525E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.8536115843520301E-6</v>
       </c>
@@ -577,8 +1001,30 @@
       <c r="D20" s="1">
         <v>6.1509664569717898E-13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>2.25572711092467E-5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2557271109246701E-105</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13479783231335885</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9648891263384655E-103</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13479783231335885</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1004518416005607E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5.1784848871389499E-4</v>
       </c>
@@ -588,8 +1034,30 @@
       <c r="D21" s="1">
         <v>2.33005700003955E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>3.7165867462729701E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.3799661387625501E-19</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>22.209594173684881</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0961317103793211E-17</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>22.209594173684881</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4607517185344474E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.4025424889270701E-4</v>
       </c>
@@ -599,8 +1067,30 @@
       <c r="D22" s="1">
         <v>8.1263608606457505E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>4.4559595161371198E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.8883844694133201E-25</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>26.627940974879117</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3421180578396819E-23</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
+        <v>26.627940974879117</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1492290119841176E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.84840116077909E-4</v>
       </c>
@@ -610,8 +1100,30 @@
       <c r="D23" s="1">
         <v>4.74902885100745E-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>2.1966944669948802E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.3718617032804299E-39</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>13.127015717972972</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0603295955668668E-37</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
+        <v>13.127015717972972</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0454827697406011E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.5288990877440696E-6</v>
       </c>
@@ -620,6 +1132,34 @@
       </c>
       <c r="D24" s="1">
         <v>2.6310305251421598E-10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6.7280277755465607E-5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.1782274773872898E-53</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40205375707701585</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4040122263487916E-50</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40205375707701585</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2648971424976728E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N25" s="1">
+        <f>SUM(N1:N24)</f>
+        <v>6417.5635757800501</v>
       </c>
     </row>
   </sheetData>

--- a/Задание_НИТПУ/Лист Microsoft Excel.xlsx
+++ b/Задание_НИТПУ/Лист Microsoft Excel.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57C5F47-3E27-4647-838D-DCF862A77E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>,</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,6 +78,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -106,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -139,9 +162,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,6 +214,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -349,16 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P24"/>
+      <selection activeCell="F1" sqref="F1:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1.0573705615042801E-3</v>
       </c>
@@ -368,36 +425,50 @@
       <c r="D1" s="1">
         <v>1.1386591849394899E-3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT(D1,$E$1)</f>
+        <v>0.00113865918493949,</v>
+      </c>
+      <c r="H1" s="1">
         <v>2.3350060561154001E-4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>1.3878978871544001E-6</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>5975.8040616048802</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>441.759514175172</v>
       </c>
-      <c r="L1" s="1">
-        <f>F1*$I$1</f>
+      <c r="N1" s="1">
+        <f>H1*$K$1</f>
         <v>1.39535386740064</v>
       </c>
-      <c r="M1" s="1">
-        <f>G1*$J$1</f>
+      <c r="O1" s="1">
+        <f>I1*$L$1</f>
         <v>6.1311709635407548E-4</v>
       </c>
-      <c r="N1" s="1">
-        <f>L1+M1</f>
+      <c r="P1" s="1">
+        <f>N1+O1</f>
         <v>1.3959669844969942</v>
       </c>
-      <c r="P1" s="1">
-        <f>N1/$N$25</f>
+      <c r="R1" s="1">
+        <f>P1/$P$25</f>
         <v>2.1752289136104356E-4</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="str">
+        <f>_xlfn.CONCAT(R1,$S$1)</f>
+        <v>0.000217522891361044,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.5370444952353203E-3</v>
       </c>
@@ -407,30 +478,38 @@
       <c r="D2" s="1">
         <v>6.6824269605361203E-3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F24" si="0">_xlfn.CONCAT(D2,$E$1)</f>
+        <v>0.00668242696053612,</v>
+      </c>
+      <c r="H2" s="1">
         <v>5.3954591432877801E-3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>1.58969533803996E-4</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L24" si="0">F2*$I$1</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N24" si="1">H2*$K$1</f>
         <v>32.242206662682307</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M24" si="1">G2*$J$1</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O24" si="2">I2*$L$1</f>
         <v>7.0226304021906855E-2</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N24" si="2">L2+M2</f>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P24" si="3">N2+O2</f>
         <v>32.312432966704215</v>
       </c>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P24" si="3">N2/$N$25</f>
+      <c r="R2" s="1">
+        <f t="shared" ref="R2:R24" si="4">P2/$P$25</f>
         <v>5.0350000565092439E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T24" si="5">_xlfn.CONCAT(R2,$S$1)</f>
+        <v>0.00503500005650924,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.82829670553881996</v>
       </c>
@@ -440,30 +519,38 @@
       <c r="D3">
         <v>0.87607403753719004</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.87607403753719,</v>
+      </c>
+      <c r="H3">
         <v>0.35941763246445102</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>9.6038686822532194E-7</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="0"/>
+      <c r="N3" s="1">
+        <f t="shared" si="1"/>
         <v>2147.8093478934766</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" si="1"/>
+      <c r="O3" s="1">
+        <f t="shared" si="2"/>
         <v>4.2426003632743317E-4</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" si="2"/>
+      <c r="P3" s="1">
+        <f t="shared" si="3"/>
         <v>2147.8097721535128</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" si="3"/>
+      <c r="R3" s="1">
+        <f t="shared" si="4"/>
         <v>0.33467682038388658</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T3" t="str">
+        <f t="shared" si="5"/>
+        <v>0.334676820383887,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.4938208668573497E-2</v>
       </c>
@@ -473,30 +560,38 @@
       <c r="D4">
         <v>5.4823048923164003E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.054823048923164,</v>
+      </c>
+      <c r="H4" s="1">
         <v>6.0277247322142902E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>9.2592920809123299E-10</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
         <v>360.20501937002342</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" si="1"/>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
         <v>4.0903803712698484E-7</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" si="2"/>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
         <v>360.20501977906144</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="3"/>
+      <c r="R4" s="1">
+        <f t="shared" si="4"/>
         <v>5.6128001776013382E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T4" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0561280017760134,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.5802552437546702E-2</v>
       </c>
@@ -506,30 +601,38 @@
       <c r="D5">
         <v>3.2696512123184002E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.032696512123184,</v>
+      </c>
+      <c r="H5" s="1">
         <v>7.2912133561570197E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>3.4445711603093899E-12</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
         <v>435.70862387750867</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
         <v>1.5216720823200846E-9</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="2"/>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
         <v>435.70862387903037</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" si="3"/>
+      <c r="R5" s="1">
+        <f t="shared" si="4"/>
         <v>6.7893152710383597E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T5" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0678931527103836,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9.2398729276617596E-3</v>
       </c>
@@ -539,30 +642,38 @@
       <c r="D6" s="1">
         <v>7.6268314305623797E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.00762683143056238,</v>
+      </c>
+      <c r="H6">
         <v>2.7820335120506998E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>1.9239016581302199E-15</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
         <v>166.24887160833461</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
         <v>8.4990186181641379E-13</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
         <v>166.24887160833546</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="3"/>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
         <v>2.5905294064520121E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T6" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0259052940645201,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.1802987199824699E-2</v>
       </c>
@@ -572,30 +683,38 @@
       <c r="D7" s="1">
         <v>9.1961601337154798E-3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.00919616013371548,</v>
+      </c>
+      <c r="H7" s="1">
         <v>4.1599416366087598E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>3.4616933157626E-15</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
         <v>248.5899612808588</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
         <v>1.5292359573947264E-12</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
         <v>248.58996128086034</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
         <v>3.8735878241867576E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T7" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0387358782418676,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4.42543284086859E-3</v>
       </c>
@@ -605,30 +724,38 @@
       <c r="D8" s="1">
         <v>2.9198875877186098E-3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>0.00291988758771861,</v>
+      </c>
+      <c r="H8" s="1">
         <v>2.1457270728239899E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>1.9302350010380999E-18</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
         <v>128.2244455687715</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="1"/>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
         <v>8.5269967630250361E-16</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="2"/>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
         <v>128.2244455687715</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="3"/>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
         <v>1.9980237679715688E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T8" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0199802376797157,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3.8941668828722802E-3</v>
       </c>
@@ -638,30 +765,38 @@
       <c r="D9" s="1">
         <v>2.3846914681668798E-3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.00238469146816688,</v>
+      </c>
+      <c r="H9" s="1">
         <v>2.0930337971564301E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>1.67177687817174E-18</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
         <v>125.0755986612368</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="1"/>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
         <v>7.3852334151043356E-16</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="2"/>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
         <v>125.0755986612368</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="3"/>
+      <c r="R9" s="1">
+        <f t="shared" si="4"/>
         <v>1.9489576875135819E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T9" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0194895768751358,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4.9549152563369003E-3</v>
       </c>
@@ -671,30 +806,38 @@
       <c r="D10" s="1">
         <v>2.1798039109574801E-3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.00217980391095748,</v>
+      </c>
+      <c r="H10" s="1">
         <v>3.6112291123653599E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>1.9148835078698E-21</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
+      <c r="N10" s="1">
+        <f t="shared" si="1"/>
         <v>215.79997597058704</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="1"/>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
         <v>8.4591800813861203E-19</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="2"/>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
         <v>215.79997597058704</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="3"/>
+      <c r="R10" s="1">
+        <f t="shared" si="4"/>
         <v>3.362646484485457E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T10" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0336264648448546,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7.0272232860967097E-3</v>
       </c>
@@ -704,30 +847,38 @@
       <c r="D11" s="1">
         <v>9.6637450694388605E-4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000966374506943886,</v>
+      </c>
+      <c r="H11" s="1">
         <v>8.8172781529004902E-4</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.99983868125206099</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
         <v>5.2690326598402724</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="1"/>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
         <v>441.6882500834551</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="2"/>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
         <v>446.95728274329537</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="3"/>
+      <c r="R11" s="1">
+        <f t="shared" si="4"/>
         <v>6.9645945453523303E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T11" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0696459454535233,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -737,30 +888,38 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="2"/>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="3"/>
+      <c r="R12" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T12" t="str">
+        <f t="shared" si="5"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.1342934682172601E-3</v>
       </c>
@@ -770,30 +929,38 @@
       <c r="D13" s="1">
         <v>3.5798168390153599E-4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000357981683901536,</v>
+      </c>
+      <c r="H13" s="1">
         <v>9.8316676649941592E-3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>7.7011777622632396E-24</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
         <v>58.752119564821463</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
         <v>3.4020685468340466E-21</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="2"/>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
         <v>58.752119564821463</v>
       </c>
-      <c r="P13" s="1">
-        <f t="shared" si="3"/>
+      <c r="R13" s="1">
+        <f t="shared" si="4"/>
         <v>9.1548948243461992E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T13" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0091548948243462,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.81851099714553E-2</v>
       </c>
@@ -803,30 +970,38 @@
       <c r="D14" s="1">
         <v>2.56252713820149E-3</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.00256252713820149,</v>
+      </c>
+      <c r="H14">
         <v>0.19286889074619401</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>1.8519391163033601E-24</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
         <v>1152.546700678334</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="1"/>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
         <v>8.1811172430016972E-22</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="2"/>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
         <v>1152.546700678334</v>
       </c>
-      <c r="P14" s="1">
-        <f t="shared" si="3"/>
+      <c r="R14" s="1">
+        <f t="shared" si="4"/>
         <v>0.17959256454085737</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T14" t="str">
+        <f t="shared" si="5"/>
+        <v>0.179592564540857,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3.8344179643451501E-4</v>
       </c>
@@ -836,30 +1011,38 @@
       <c r="D15" s="1">
         <v>4.0439567751643102E-6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>4.04395677516431E-06,</v>
+      </c>
+      <c r="H15" s="1">
         <v>4.6213741045895698E-3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>5.4542644020457196E-47</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
         <v>27.616426144401967</v>
       </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
         <v>2.409473192430652E-44</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
         <v>27.616426144401967</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="3"/>
+      <c r="R15" s="1">
+        <f t="shared" si="4"/>
         <v>4.3032571190454016E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T15" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0043032571190454,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8.6577519518660998E-3</v>
       </c>
@@ -869,30 +1052,38 @@
       <c r="D16" s="1">
         <v>6.7958453959585203E-5</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>6.79584539595852E-05,</v>
+      </c>
+      <c r="H16">
         <v>0.104605323861578</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>2.3865020542718502E-44</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
         <v>625.10091919751176</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" si="1"/>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
         <v>1.0542599880731825E-41</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="2"/>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
         <v>625.10091919751176</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="3"/>
+      <c r="R16" s="1">
+        <f t="shared" si="4"/>
         <v>9.7404710029932381E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T16" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0974047100299324,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2.42773423276806E-3</v>
       </c>
@@ -902,30 +1093,38 @@
       <c r="D17" s="1">
         <v>3.4422908893193299E-8</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>3.44229088931933E-08,</v>
+      </c>
+      <c r="H17" s="1">
         <v>2.9543604678154398E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>3.2457968090160199E-88</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
         <v>176.54679283016398</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
         <v>1.4338616214622404E-85</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="2"/>
+      <c r="P17" s="1">
+        <f t="shared" si="3"/>
         <v>176.54679283016398</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" si="3"/>
+      <c r="R17" s="1">
+        <f t="shared" si="4"/>
         <v>2.7509940609930748E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0275099406099307,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7.8230578061874303E-5</v>
       </c>
@@ -935,30 +1134,38 @@
       <c r="D18" s="1">
         <v>1.97546034117334E-9</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.97546034117334E-09,</v>
+      </c>
+      <c r="H18" s="1">
         <v>9.5199462422339699E-4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>2.42811300745134E-82</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
         <v>5.6889333420601877</v>
       </c>
-      <c r="M18" s="1">
-        <f t="shared" si="1"/>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
         <v>1.0726420225341198E-79</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="2"/>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
         <v>5.6889333420601877</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="3"/>
+      <c r="R18" s="1">
+        <f t="shared" si="4"/>
         <v>8.8646310626828528E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T18" t="str">
+        <f t="shared" si="5"/>
+        <v>0.000886463106268285,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6.6325414999446496E-6</v>
       </c>
@@ -968,30 +1175,38 @@
       <c r="D19" s="1">
         <v>5.3547797229203403E-13</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>5.35477972292034E-13,</v>
+      </c>
+      <c r="H19" s="1">
         <v>8.0713819590451805E-5</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>8.0713819590451794E-105</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
         <v>0.48232997093626545</v>
       </c>
-      <c r="M19" s="1">
-        <f t="shared" si="1"/>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
         <v>3.5656097729500463E-102</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
         <v>0.48232997093626545</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="3"/>
+      <c r="R19" s="1">
+        <f t="shared" si="4"/>
         <v>7.5157801748405525E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T19" t="str">
+        <f t="shared" si="5"/>
+        <v>7.51578017484055E-05,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.8536115843520301E-6</v>
       </c>
@@ -1001,30 +1216,38 @@
       <c r="D20" s="1">
         <v>6.1509664569717898E-13</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>6.15096645697179E-13,</v>
+      </c>
+      <c r="H20" s="1">
         <v>2.25572711092467E-5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>2.2557271109246701E-105</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
+      <c r="N20" s="1">
+        <f t="shared" si="1"/>
         <v>0.13479783231335885</v>
       </c>
-      <c r="M20" s="1">
-        <f t="shared" si="1"/>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
         <v>9.9648891263384655E-103</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
         <v>0.13479783231335885</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" si="3"/>
+      <c r="R20" s="1">
+        <f t="shared" si="4"/>
         <v>2.1004518416005607E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T20" t="str">
+        <f t="shared" si="5"/>
+        <v>2.10045184160056E-05,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5.1784848871389499E-4</v>
       </c>
@@ -1034,30 +1257,38 @@
       <c r="D21" s="1">
         <v>2.33005700003955E-4</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000233005700003955,</v>
+      </c>
+      <c r="H21" s="1">
         <v>3.7165867462729701E-3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>1.3799661387625501E-19</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
         <v>22.209594173684881</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="1"/>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
         <v>6.0961317103793211E-17</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="2"/>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
         <v>22.209594173684881</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="3"/>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
         <v>3.4607517185344474E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T21" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00346075171853445,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4.4025424889270701E-4</v>
       </c>
@@ -1067,30 +1298,38 @@
       <c r="D22" s="1">
         <v>8.1263608606457505E-5</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>8.12636086064575E-05,</v>
+      </c>
+      <c r="H22" s="1">
         <v>4.4559595161371198E-3</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>1.8883844694133201E-25</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
         <v>26.627940974879117</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" si="1"/>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
         <v>8.3421180578396819E-23</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="2"/>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
         <v>26.627940974879117</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="3"/>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
         <v>4.1492290119841176E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T22" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00414922901198412,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1.84840116077909E-4</v>
       </c>
@@ -1100,30 +1339,38 @@
       <c r="D23" s="1">
         <v>4.74902885100745E-6</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>4.74902885100745E-06,</v>
+      </c>
+      <c r="H23" s="1">
         <v>2.1966944669948802E-3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>1.3718617032804299E-39</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
         <v>13.127015717972972</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" si="1"/>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
         <v>6.0603295955668668E-37</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" si="2"/>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
         <v>13.127015717972972</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" si="3"/>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
         <v>2.0454827697406011E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T23" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0020454827697406,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5.5288990877440696E-6</v>
       </c>
@@ -1133,59 +1380,68 @@
       <c r="D24" s="1">
         <v>2.6310305251421598E-10</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>2.63103052514216E-10,</v>
+      </c>
+      <c r="H24" s="1">
         <v>6.7280277755465607E-5</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>3.1782274773872898E-53</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
         <v>0.40205375707701585</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" si="1"/>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
         <v>1.4040122263487916E-50</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" si="2"/>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
         <v>0.40205375707701585</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="3"/>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
         <v>6.2648971424976728E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N25" s="1">
-        <f>SUM(N1:N24)</f>
+      <c r="T24" t="str">
+        <f t="shared" si="5"/>
+        <v>6.26489714249767E-05,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P25" s="1">
+        <f>SUM(P1:P24)</f>
         <v>6417.5635757800501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
